--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43460,6 +43460,41 @@
         <v>76000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>40900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43495,6 +43495,41 @@
         <v>40900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>102900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43530,6 +43530,41 @@
         <v>102900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>204000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43565,6 +43565,41 @@
         <v>204000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>76000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43600,6 +43600,41 @@
         <v>76000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>32000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43635,6 +43635,41 @@
         <v>32000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>77300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43670,6 +43670,41 @@
         <v>77300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>68100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43705,6 +43705,41 @@
         <v>68100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>85200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43740,6 +43740,41 @@
         <v>85200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>271700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43775,6 +43775,41 @@
         <v>271700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3813300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43810,6 +43810,41 @@
         <v>3813300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>13100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43845,6 +43845,41 @@
         <v>13100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>34200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43880,6 +43880,76 @@
         <v>34200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43950,6 +43950,76 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>182300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44020,6 +44020,41 @@
         <v>182300</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>118800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44055,6 +44055,41 @@
         <v>118800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>111600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44090,6 +44090,41 @@
         <v>111600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>40100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44125,6 +44125,41 @@
         <v>40100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>496300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44160,6 +44160,76 @@
         <v>496300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>120600</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>115000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44230,6 +44230,41 @@
         <v>115000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>319500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44265,6 +44265,41 @@
         <v>319500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>67000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1943"/>
+  <dimension ref="A1:I1944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68905,6 +68905,41 @@
         <v>67000</v>
       </c>
     </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1944" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1944" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1944" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1944" t="n">
+        <v>250100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1944"/>
+  <dimension ref="A1:I1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68940,6 +68940,41 @@
         <v>250100</v>
       </c>
     </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1945" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1945" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1945" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1945" t="n">
+        <v>553100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1945"/>
+  <dimension ref="A1:I1946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68975,6 +68975,41 @@
         <v>553100</v>
       </c>
     </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1946" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1946" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H1946" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1946" t="n">
+        <v>656400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1946"/>
+  <dimension ref="A1:I1947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69010,6 +69010,43 @@
         <v>656400</v>
       </c>
     </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1947" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1947" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1947" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1947" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1947"/>
+  <dimension ref="A1:I1948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69047,6 +69047,41 @@
         </is>
       </c>
     </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1948" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1948" t="n">
+        <v>24200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1948"/>
+  <dimension ref="A1:I1949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69082,6 +69082,43 @@
         <v>24200</v>
       </c>
     </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1949" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1949" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1949" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1949"/>
+  <dimension ref="A1:I1950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69119,6 +69119,43 @@
         </is>
       </c>
     </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1950" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1950" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1950" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1950" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1950"/>
+  <dimension ref="A1:I1951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69156,6 +69156,41 @@
         </is>
       </c>
     </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1951" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1951" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1951" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1951" t="n">
+        <v>1458000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1951"/>
+  <dimension ref="A1:I1952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69191,6 +69191,41 @@
         <v>1458000</v>
       </c>
     </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1952" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1952" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H1952" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I1952" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1952"/>
+  <dimension ref="A1:I1953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69226,6 +69226,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1953" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1953" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1953" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1953" t="n">
+        <v>62200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1953"/>
+  <dimension ref="A1:I1954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69261,6 +69261,43 @@
         <v>62200</v>
       </c>
     </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1954" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1954" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1954" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1954" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1954"/>
+  <dimension ref="A1:I1955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69298,6 +69298,41 @@
         </is>
       </c>
     </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1955" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1955" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H1955" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1955" t="n">
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1955"/>
+  <dimension ref="A1:I1956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69333,6 +69333,41 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1956" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1956" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1956" t="n">
+        <v>58800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1956"/>
+  <dimension ref="A1:I1957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69368,6 +69368,41 @@
         <v>58800</v>
       </c>
     </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1957" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1957" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1957" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1957"/>
+  <dimension ref="A1:I1958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69403,6 +69403,43 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E1958" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1958" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1958" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2345"/>
+  <dimension ref="A1:I2346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82985,6 +82985,41 @@
         </is>
       </c>
     </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2346" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H2346" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2346" t="n">
+        <v>167800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2346"/>
+  <dimension ref="A1:I2347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83020,6 +83020,41 @@
         <v>167800</v>
       </c>
     </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2347" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H2347" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I2347" t="n">
+        <v>73400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2347"/>
+  <dimension ref="A1:I2348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83055,6 +83055,43 @@
         <v>73400</v>
       </c>
     </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I2348" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2348"/>
+  <dimension ref="A1:I2349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83092,6 +83092,41 @@
         </is>
       </c>
     </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2349" t="n">
+        <v>266500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2349"/>
+  <dimension ref="A1:I2350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,6 +83127,43 @@
         <v>266500</v>
       </c>
     </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2350" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2350" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2350" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2350"/>
+  <dimension ref="A1:I2351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83164,6 +83164,41 @@
         </is>
       </c>
     </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2351" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2351" t="n">
+        <v>217000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2351"/>
+  <dimension ref="A1:I2352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83199,6 +83199,41 @@
         <v>217000</v>
       </c>
     </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2352" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I2352" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2352"/>
+  <dimension ref="A1:I2353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83234,6 +83234,41 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I2353" t="n">
+        <v>138000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2353"/>
+  <dimension ref="A1:I2354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83269,6 +83269,41 @@
         <v>138000</v>
       </c>
     </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I2354" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2354"/>
+  <dimension ref="A1:I2355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83304,6 +83304,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>212500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2355"/>
+  <dimension ref="A1:I2357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83339,6 +83339,76 @@
         <v>212500</v>
       </c>
     </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2356" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H2356" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2356" t="n">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H2357" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I2357" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2357"/>
+  <dimension ref="A1:I2358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83409,6 +83409,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2358" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I2358" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2358"/>
+  <dimension ref="A1:I2361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83444,6 +83444,111 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2359" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I2359" t="n">
+        <v>64500</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H2360" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I2360" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H2361" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I2361" t="n">
+        <v>95200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2361"/>
+  <dimension ref="A1:I2362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83549,6 +83549,41 @@
         <v>95200</v>
       </c>
     </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2362" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I2362" t="n">
+        <v>158500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2362"/>
+  <dimension ref="A1:I2363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83584,6 +83584,41 @@
         <v>158500</v>
       </c>
     </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2363" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2363" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H2363" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2363" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0126.xlsx
+++ b/data/0126.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2363"/>
+  <dimension ref="A1:I2366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83619,6 +83619,113 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2364" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2364" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2364" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H2364" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2364" t="n">
+        <v>114500</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2365" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G2365" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2365" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2365" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>0126</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>MICROLN</t>
+        </is>
+      </c>
+      <c r="E2366" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2366" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G2366" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2366" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2366" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
